--- a/research/feature_importance_total.xlsx
+++ b/research/feature_importance_total.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Feature</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>99.91%</t>
+  </si>
+  <si>
+    <t>Diff to above</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +575,7 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -596,6 +599,9 @@
       <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -619,7 +625,7 @@
         <v>1041</v>
       </c>
       <c r="C3">
-        <f>B2-B3</f>
+        <f t="shared" ref="C3:C12" si="0">B2-B3</f>
         <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -641,7 +647,7 @@
         <v>954</v>
       </c>
       <c r="C4">
-        <f>B3-B4</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -663,7 +669,7 @@
         <v>894</v>
       </c>
       <c r="C5">
-        <f>B4-B5</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -685,7 +691,7 @@
         <v>874</v>
       </c>
       <c r="C6">
-        <f>B5-B6</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -707,7 +713,7 @@
         <v>620</v>
       </c>
       <c r="C7">
-        <f>B6-B7</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -729,7 +735,7 @@
         <v>615</v>
       </c>
       <c r="C8">
-        <f>B7-B8</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -747,7 +753,7 @@
         <v>561</v>
       </c>
       <c r="C9">
-        <f>B8-B9</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -769,7 +775,7 @@
         <v>460</v>
       </c>
       <c r="C10">
-        <f>B9-B10</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -791,7 +797,7 @@
         <v>418</v>
       </c>
       <c r="C11">
-        <f>B10-B11</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -813,7 +819,7 @@
         <v>395</v>
       </c>
       <c r="C12">
-        <f>B11-B12</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -929,7 +935,7 @@
         <v>172</v>
       </c>
       <c r="C18">
-        <f>B17-B18</f>
+        <f t="shared" ref="C18:C33" si="1">B17-B18</f>
         <v>10</v>
       </c>
     </row>
@@ -941,7 +947,7 @@
         <v>172</v>
       </c>
       <c r="C19">
-        <f>B18-B19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -953,7 +959,7 @@
         <v>168</v>
       </c>
       <c r="C20">
-        <f>B19-B20</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -965,7 +971,7 @@
         <v>161</v>
       </c>
       <c r="C21">
-        <f>B20-B21</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -977,7 +983,7 @@
         <v>143</v>
       </c>
       <c r="C22">
-        <f>B21-B22</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -989,7 +995,7 @@
         <v>142</v>
       </c>
       <c r="C23">
-        <f>B22-B23</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1001,7 +1007,7 @@
         <v>117</v>
       </c>
       <c r="C24">
-        <f>B23-B24</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -1013,7 +1019,7 @@
         <v>44</v>
       </c>
       <c r="C25">
-        <f>B24-B25</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -1025,7 +1031,7 @@
         <v>39</v>
       </c>
       <c r="C26">
-        <f>B25-B26</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1037,7 +1043,7 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <f>B26-B27</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1049,7 +1055,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <f>B27-B28</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1061,7 +1067,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <f>B28-B29</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1073,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="C30">
-        <f>B29-B30</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1085,7 +1091,7 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <f>B30-B31</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1097,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <f>B31-B32</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -1109,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <f>B32-B33</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
